--- a/canteen details.xlsx
+++ b/canteen details.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ChinHong/Google Drive/Intro to Comp Thinking Mini Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\CZ1003-Introduction to Computational Thinking\Project\MiniProjectCZ1003-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E772B7AB-966C-46A1-834D-7CB62EEEC333}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16680" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>Canteen</t>
   </si>
@@ -126,9 +132,6 @@
     <t>The Hive</t>
   </si>
   <si>
-    <t>North Spine Plaza</t>
-  </si>
-  <si>
     <t>6432 1234</t>
   </si>
   <si>
@@ -165,47 +168,13 @@
     <t>8am to 6pm</t>
   </si>
   <si>
-    <t>50 Nanyang Avenue
-Singapore 639798</t>
-  </si>
-  <si>
-    <t>20 Nanyang Avenue
-Singapore 639798</t>
-  </si>
-  <si>
-    <t>32 Nanyang Crescent
-Singapore 637658</t>
-  </si>
-  <si>
-    <t>34 Nanyang Crescent
-Singapore 637634</t>
-  </si>
-  <si>
-    <t>50 Nanyang Walk
-Singapore 639929</t>
-  </si>
-  <si>
-    <t>18 Nanyang Crescent
-Singapore 637634</t>
-  </si>
-  <si>
-    <t>60 Nanyang Crescent
-Blk 21A, 02-02
-Singapore 636957</t>
-  </si>
-  <si>
-    <t>North Spine Plaza
-50 Nanyang Avenue</t>
-  </si>
-  <si>
-    <t>The Hive
-50 Nanyang Avenue</t>
+    <t>Mc Donald</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -242,13 +211,16 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -516,16 +488,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -551,15 +523,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>321</v>
+        <v>441</v>
       </c>
       <c r="C2">
-        <v>123</v>
+        <v>430</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -577,15 +549,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>676</v>
+        <v>477</v>
       </c>
       <c r="C3">
-        <v>345</v>
+        <v>372</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -603,15 +575,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>787</v>
+        <v>276</v>
       </c>
       <c r="C4">
-        <v>345</v>
+        <v>266</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -629,15 +601,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="78" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>543</v>
+        <v>227</v>
       </c>
       <c r="C5">
-        <v>234</v>
+        <v>450</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -655,18 +627,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
       <c r="B6">
-        <v>346</v>
+        <v>430</v>
       </c>
       <c r="C6">
-        <v>137</v>
+        <v>300</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -677,22 +649,19 @@
       <c r="G6">
         <v>300</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
       <c r="B7">
-        <v>365</v>
+        <v>586</v>
       </c>
       <c r="C7">
-        <v>164</v>
+        <v>260</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
@@ -703,22 +672,19 @@
       <c r="G7">
         <v>279</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
       <c r="B8">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="C8">
-        <v>134</v>
+        <v>220</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
@@ -729,22 +695,19 @@
       <c r="G8">
         <v>198</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
       <c r="B9">
-        <v>235</v>
+        <v>443</v>
       </c>
       <c r="C9">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
         <v>15</v>
@@ -753,24 +716,21 @@
         <v>8</v>
       </c>
       <c r="G9">
-        <v>210</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>25</v>
       </c>
       <c r="B10">
-        <v>47</v>
+        <v>511</v>
       </c>
       <c r="C10">
-        <v>457</v>
+        <v>165</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
         <v>15</v>
@@ -779,24 +739,21 @@
         <v>7</v>
       </c>
       <c r="G10">
-        <v>270</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
       <c r="B11">
-        <v>975</v>
+        <v>405</v>
       </c>
       <c r="C11">
-        <v>137</v>
+        <v>201</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
         <v>15</v>
@@ -807,25 +764,22 @@
       <c r="G11">
         <v>179</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>27</v>
       </c>
       <c r="B12">
-        <v>642</v>
+        <v>267</v>
       </c>
       <c r="C12">
-        <v>758</v>
+        <v>156</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F12">
         <v>15</v>
@@ -833,22 +787,19 @@
       <c r="G12">
         <v>1800</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
       <c r="B13">
-        <v>748</v>
+        <v>674</v>
       </c>
       <c r="C13">
-        <v>348</v>
+        <v>267</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
@@ -859,25 +810,22 @@
       <c r="G13">
         <v>350</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>29</v>
       </c>
       <c r="B14">
-        <v>385</v>
+        <v>257</v>
       </c>
       <c r="C14">
-        <v>479</v>
+        <v>431</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F14">
         <v>10</v>
@@ -885,22 +833,19 @@
       <c r="G14">
         <v>80</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B15">
-        <v>853</v>
+        <v>300</v>
       </c>
       <c r="C15">
-        <v>347</v>
+        <v>270</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E15" t="s">
         <v>15</v>
@@ -910,9 +855,6 @@
       </c>
       <c r="G15">
         <v>498</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/canteen details.xlsx
+++ b/canteen details.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\CZ1003-Introduction to Computational Thinking\Project\MiniProjectCZ1003-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NTU papers\Year1\CZ1003\Mini Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE59291E-1942-43AB-B07F-B027A44BCC90}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224B277B-413C-4045-B839-3B7C7FC130FC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17260" windowHeight="5580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
   <si>
     <t>Canteen</t>
   </si>
@@ -174,9 +174,6 @@
     <t>North Spine Food Court.png</t>
   </si>
   <si>
-    <t>mailto:Koufu @ the South Spine.png</t>
-  </si>
-  <si>
     <t>Canteen 9.png</t>
   </si>
   <si>
@@ -202,6 +199,12 @@
   </si>
   <si>
     <t>Canteen 1.jpg</t>
+  </si>
+  <si>
+    <t>Koufu @ the South Spine.png</t>
+  </si>
+  <si>
+    <t>Canteen 13.png</t>
   </si>
 </sst>
 </file>
@@ -254,8 +257,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
-    <cellStyle name="Siêu kết nối" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -376,15 +379,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
+      <xdr:colOff>302260</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>281940</xdr:rowOff>
+      <xdr:rowOff>59690</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1242134</xdr:colOff>
+      <xdr:colOff>1292934</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>1455420</xdr:rowOff>
+      <xdr:rowOff>947420</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -413,8 +416,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7078980" y="6141720"/>
-          <a:ext cx="990674" cy="1173480"/>
+          <a:off x="7109460" y="6511290"/>
+          <a:ext cx="990674" cy="887730"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -689,20 +692,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="9" max="9" width="20.796875" customWidth="1"/>
-    <col min="10" max="10" width="10.09765625" customWidth="1"/>
-    <col min="11" max="11" width="9.59765625" customWidth="1"/>
+    <col min="9" max="9" width="20.83203125" customWidth="1"/>
+    <col min="10" max="10" width="10.08203125" customWidth="1"/>
+    <col min="11" max="11" width="9.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -731,7 +734,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="46.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -757,10 +760,10 @@
         <v>19</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="38.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -789,7 +792,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="124" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -818,7 +821,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="78" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -844,10 +847,10 @@
         <v>17</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="85.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -870,10 +873,10 @@
         <v>279</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="121.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -896,10 +899,10 @@
         <v>198</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="92.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -922,10 +925,10 @@
         <v>238</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="89.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -948,10 +951,10 @@
         <v>298</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -974,10 +977,10 @@
         <v>179</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1000,10 +1003,10 @@
         <v>1800</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1026,10 +1029,10 @@
         <v>350</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1052,10 +1055,10 @@
         <v>80</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -1078,17 +1081,17 @@
         <v>498</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I3" r:id="rId1" xr:uid="{A7BAECBA-06E2-46CE-A2A2-65CC8B54265A}"/>
     <hyperlink ref="I4" r:id="rId2" xr:uid="{DF059ABC-A843-45DF-80F4-CC928607E728}"/>
-    <hyperlink ref="I5" r:id="rId3" xr:uid="{A769C651-569F-4EBB-A868-FBDEBFC98212}"/>
+    <hyperlink ref="I5" r:id="rId3" display="mailto:Koufu @ the South Spine.png" xr:uid="{A769C651-569F-4EBB-A868-FBDEBFC98212}"/>
     <hyperlink ref="I6" r:id="rId4" xr:uid="{2D68F5D7-48FA-4574-A03C-FE67D2157B38}"/>
     <hyperlink ref="I7" r:id="rId5" xr:uid="{69B7E168-F28B-4BA2-B37D-B2284DE3F659}"/>
-    <hyperlink ref="I8" r:id="rId6" xr:uid="{F4E98B88-4DB3-4F1D-B40D-D8D549CBC590}"/>
+    <hyperlink ref="I8" r:id="rId6" display="Canteen 13" xr:uid="{F4E98B88-4DB3-4F1D-B40D-D8D549CBC590}"/>
     <hyperlink ref="I9" r:id="rId7" xr:uid="{F5BF9E1A-D194-4943-85F0-CF98D46D3071}"/>
     <hyperlink ref="I10" r:id="rId8" xr:uid="{230CAA60-183C-4735-96FB-50CDC8F28406}"/>
     <hyperlink ref="I11" r:id="rId9" xr:uid="{1F913D11-82FE-4D2D-98AD-4907016E14E3}"/>

--- a/canteen details.xlsx
+++ b/canteen details.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\CZ1003-Introduction to Computational Thinking\Project\MiniProjectCZ1003-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NTU papers\Year1\CZ1003\Mini Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D39676E-CE8E-4B82-8E1C-F78E9902DFA0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFB43DD-B6DB-44F8-93CB-D92EBDE974B7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
   <si>
     <t>Canteen</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Telephone</t>
   </si>
   <si>
-    <t>Opearting hours</t>
-  </si>
-  <si>
     <t>Capacity</t>
   </si>
   <si>
@@ -83,25 +80,6 @@
     <t>8am to 8pm</t>
   </si>
   <si>
-    <t>50 Nanyang Avenue
-SS3-B4
-Singapore 639798</t>
-  </si>
-  <si>
-    <t>North Spine Plaza 
-76 Nanyang Drive
-NS2.1-02-03/01A
-Singapore 637331</t>
-  </si>
-  <si>
-    <t>21 Nanyang Circle
-Singapore 639778</t>
-  </si>
-  <si>
-    <t>35 Students Walk
-Singapore 639548</t>
-  </si>
-  <si>
     <t>Canteen 9</t>
   </si>
   <si>
@@ -168,18 +146,9 @@
     <t>North Spine Food Court.png</t>
   </si>
   <si>
-    <t>mailto:Koufu @ the South Spine.png</t>
-  </si>
-  <si>
-    <t>Canteen 9.png</t>
-  </si>
-  <si>
     <t>Canteen 11.png</t>
   </si>
   <si>
-    <t>Canteen 14.png</t>
-  </si>
-  <si>
     <t>Canteen 16.png</t>
   </si>
   <si>
@@ -201,20 +170,46 @@
     <t>McDonald's</t>
   </si>
   <si>
-    <t xml:space="preserve">Bakery Cuisine </t>
-  </si>
-  <si>
     <t xml:space="preserve">7am to 9pm </t>
   </si>
   <si>
-    <t>Bakery Cuisine
-North Spine Plaza
-50 Nanyang Avenue
-NS3-01-20
-Singapore 639798</t>
-  </si>
-  <si>
     <t>Bakery Cuisine.jpg</t>
+  </si>
+  <si>
+    <t>Koufu @ the South Spine.png</t>
+  </si>
+  <si>
+    <t>Canteen 13.png</t>
+  </si>
+  <si>
+    <t>Canteen 9.jpg</t>
+  </si>
+  <si>
+    <t>Canteen 14.jpg</t>
+  </si>
+  <si>
+    <t>Operating hours</t>
+  </si>
+  <si>
+    <t>In the middle of nowhere</t>
+  </si>
+  <si>
+    <t>North Spine Plaza, 50 Nanyang Avenue, NS3-01-20, Singapore 639798</t>
+  </si>
+  <si>
+    <t>50 Nanyang Avenue, SS3-B4, Singapore 639798</t>
+  </si>
+  <si>
+    <t>North Spine Plaza, 76 Nanyang Drive, NS2.1-02-03/01A, Singapore 637331</t>
+  </si>
+  <si>
+    <t>21 Nanyang Circle, Singapore 639778</t>
+  </si>
+  <si>
+    <t>35 Students Walk, Singapore 639548</t>
+  </si>
+  <si>
+    <t>Bakery Cuisine</t>
   </si>
 </sst>
 </file>
@@ -267,8 +262,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
-    <cellStyle name="Siêu kết nối" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -288,56 +283,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>266701</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1485901</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1226820</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Hình ảnh 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DA2FC1A-DBD2-4301-9946-5D8B409B56F1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7094221" y="4869180"/>
-          <a:ext cx="1219200" cy="1127760"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
       <xdr:colOff>15241</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>449580</xdr:rowOff>
@@ -351,7 +296,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="31" name="Hình ảnh 30">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A938DB68-973E-49A1-8E4A-4F25BE1B29A3}"/>
@@ -363,7 +308,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -378,56 +323,6 @@
         <a:xfrm>
           <a:off x="6842761" y="1729740"/>
           <a:ext cx="1521460" cy="982980"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>281940</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1242134</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1455420</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Hình ảnh 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FDE4D6F-9631-4AEB-8428-EBC967113D2C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7078980" y="6141720"/>
-          <a:ext cx="990674" cy="1173480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -704,19 +599,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.796875" customWidth="1"/>
-    <col min="9" max="9" width="10.09765625" customWidth="1"/>
-    <col min="10" max="10" width="9.59765625" customWidth="1"/>
+    <col min="1" max="1" width="19.58203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" customWidth="1"/>
+    <col min="9" max="9" width="10.08203125" customWidth="1"/>
+    <col min="10" max="10" width="9.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -730,19 +625,19 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
       <c r="H1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="46.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -753,22 +648,22 @@
         <v>430</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2">
         <v>310</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="38.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -779,22 +674,22 @@
         <v>372</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3">
         <v>446</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="124.8" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -805,22 +700,22 @@
         <v>266</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4">
         <v>1838</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="78" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -831,24 +726,24 @@
         <v>450</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5">
         <v>1050</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="85.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>586</v>
@@ -857,21 +752,24 @@
         <v>260</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6">
         <v>279</v>
       </c>
+      <c r="G6" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="H6" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="121.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>682</v>
@@ -880,21 +778,24 @@
         <v>220</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7">
         <v>198</v>
       </c>
+      <c r="G7" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="H7" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="92.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>443</v>
@@ -903,21 +804,24 @@
         <v>160</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8">
         <v>238</v>
       </c>
+      <c r="G8" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="H8" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="89.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>511</v>
@@ -926,21 +830,24 @@
         <v>165</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9">
         <v>298</v>
       </c>
+      <c r="G9" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="H9" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>405</v>
@@ -949,21 +856,24 @@
         <v>201</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10">
         <v>179</v>
       </c>
+      <c r="G10" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="H10" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>267</v>
@@ -972,21 +882,24 @@
         <v>156</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F11">
         <v>1800</v>
       </c>
+      <c r="G11" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="H11" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>674</v>
@@ -995,21 +908,24 @@
         <v>267</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12">
         <v>350</v>
       </c>
+      <c r="G12" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="H12" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>257</v>
@@ -1018,21 +934,24 @@
         <v>431</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F13">
         <v>80</v>
       </c>
+      <c r="G13" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="H13" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B14">
         <v>300</v>
@@ -1041,21 +960,24 @@
         <v>270</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14">
         <v>498</v>
       </c>
+      <c r="G14" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="H14" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="140.4" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B15">
         <v>276</v>
@@ -1064,24 +986,24 @@
         <v>266</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H3" r:id="rId1" xr:uid="{A7BAECBA-06E2-46CE-A2A2-65CC8B54265A}"/>
     <hyperlink ref="H4" r:id="rId2" xr:uid="{DF059ABC-A843-45DF-80F4-CC928607E728}"/>
-    <hyperlink ref="H5" r:id="rId3" xr:uid="{A769C651-569F-4EBB-A868-FBDEBFC98212}"/>
-    <hyperlink ref="H6" r:id="rId4" xr:uid="{2D68F5D7-48FA-4574-A03C-FE67D2157B38}"/>
+    <hyperlink ref="H5" r:id="rId3" display="mailto:Koufu @ the South Spine.png" xr:uid="{A769C651-569F-4EBB-A868-FBDEBFC98212}"/>
+    <hyperlink ref="H6" r:id="rId4" display="Canteen 9.png" xr:uid="{2D68F5D7-48FA-4574-A03C-FE67D2157B38}"/>
     <hyperlink ref="H7" r:id="rId5" xr:uid="{69B7E168-F28B-4BA2-B37D-B2284DE3F659}"/>
-    <hyperlink ref="H8" r:id="rId6" xr:uid="{F4E98B88-4DB3-4F1D-B40D-D8D549CBC590}"/>
-    <hyperlink ref="H9" r:id="rId7" xr:uid="{F5BF9E1A-D194-4943-85F0-CF98D46D3071}"/>
+    <hyperlink ref="H8" r:id="rId6" display="Canteen 13" xr:uid="{F4E98B88-4DB3-4F1D-B40D-D8D549CBC590}"/>
+    <hyperlink ref="H9" r:id="rId7" display="Canteen 14.png" xr:uid="{F5BF9E1A-D194-4943-85F0-CF98D46D3071}"/>
     <hyperlink ref="H10" r:id="rId8" xr:uid="{230CAA60-183C-4735-96FB-50CDC8F28406}"/>
     <hyperlink ref="H11" r:id="rId9" xr:uid="{1F913D11-82FE-4D2D-98AD-4907016E14E3}"/>
     <hyperlink ref="H12" r:id="rId10" xr:uid="{7DBB7A45-C327-421E-AC41-FA8A01B246CF}"/>

--- a/canteen details.xlsx
+++ b/canteen details.xlsx
@@ -1,39 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NTU papers\Year1\CZ1003\Mini Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ChinHong/Documents/GitHub/MiniProjectCZ1003/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFB43DD-B6DB-44F8-93CB-D92EBDE974B7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
   <si>
     <t>Canteen</t>
   </si>
@@ -210,12 +209,24 @@
   </si>
   <si>
     <t>Bakery Cuisine</t>
+  </si>
+  <si>
+    <t>Close hour</t>
+  </si>
+  <si>
+    <t>Open hour</t>
+  </si>
+  <si>
+    <t>Open min</t>
+  </si>
+  <si>
+    <t>Close min</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -282,13 +293,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>15241</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>449580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>1536701</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>1432560</xdr:rowOff>
@@ -299,7 +310,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A938DB68-973E-49A1-8E4A-4F25BE1B29A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A938DB68-973E-49A1-8E4A-4F25BE1B29A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -596,22 +607,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.58203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" customWidth="1"/>
-    <col min="9" max="9" width="10.08203125" customWidth="1"/>
-    <col min="10" max="10" width="9.58203125" customWidth="1"/>
+    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.83203125" customWidth="1"/>
+    <col min="13" max="13" width="10" customWidth="1"/>
+    <col min="14" max="14" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -628,16 +639,28 @@
         <v>51</v>
       </c>
       <c r="F1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="46.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -654,16 +677,28 @@
         <v>13</v>
       </c>
       <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>21</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
         <v>310</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="38.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="38.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -680,16 +715,28 @@
         <v>13</v>
       </c>
       <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>21</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>446</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="112" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -706,16 +753,28 @@
         <v>13</v>
       </c>
       <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>21</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
         <v>1838</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="80" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -732,16 +791,28 @@
         <v>14</v>
       </c>
       <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>20</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>1050</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="85.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="85.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -758,16 +829,28 @@
         <v>13</v>
       </c>
       <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>21</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>279</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="121.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="121.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -784,16 +867,28 @@
         <v>13</v>
       </c>
       <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>21</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
         <v>198</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="92.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="92.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -810,16 +905,28 @@
         <v>13</v>
       </c>
       <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>21</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
         <v>238</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="89.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="89.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -836,16 +943,28 @@
         <v>13</v>
       </c>
       <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>21</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
         <v>298</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -862,16 +981,28 @@
         <v>13</v>
       </c>
       <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>21</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>179</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -888,16 +1019,28 @@
         <v>32</v>
       </c>
       <c r="F11">
+        <v>7</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>17</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
         <v>1800</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -914,16 +1057,28 @@
         <v>13</v>
       </c>
       <c r="F12">
+        <v>7</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>21</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
         <v>350</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -940,16 +1095,28 @@
         <v>33</v>
       </c>
       <c r="F13">
+        <v>8</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>18</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
         <v>80</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -966,16 +1133,28 @@
         <v>13</v>
       </c>
       <c r="F14">
+        <v>7</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>21</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
         <v>498</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="L14" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="112" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -988,29 +1167,41 @@
       <c r="E15" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="F15">
+        <v>7</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>21</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" xr:uid="{A7BAECBA-06E2-46CE-A2A2-65CC8B54265A}"/>
-    <hyperlink ref="H4" r:id="rId2" xr:uid="{DF059ABC-A843-45DF-80F4-CC928607E728}"/>
-    <hyperlink ref="H5" r:id="rId3" display="mailto:Koufu @ the South Spine.png" xr:uid="{A769C651-569F-4EBB-A868-FBDEBFC98212}"/>
-    <hyperlink ref="H6" r:id="rId4" display="Canteen 9.png" xr:uid="{2D68F5D7-48FA-4574-A03C-FE67D2157B38}"/>
-    <hyperlink ref="H7" r:id="rId5" xr:uid="{69B7E168-F28B-4BA2-B37D-B2284DE3F659}"/>
-    <hyperlink ref="H8" r:id="rId6" display="Canteen 13" xr:uid="{F4E98B88-4DB3-4F1D-B40D-D8D549CBC590}"/>
-    <hyperlink ref="H9" r:id="rId7" display="Canteen 14.png" xr:uid="{F5BF9E1A-D194-4943-85F0-CF98D46D3071}"/>
-    <hyperlink ref="H10" r:id="rId8" xr:uid="{230CAA60-183C-4735-96FB-50CDC8F28406}"/>
-    <hyperlink ref="H11" r:id="rId9" xr:uid="{1F913D11-82FE-4D2D-98AD-4907016E14E3}"/>
-    <hyperlink ref="H12" r:id="rId10" xr:uid="{7DBB7A45-C327-421E-AC41-FA8A01B246CF}"/>
-    <hyperlink ref="H13" r:id="rId11" xr:uid="{2D5D6AF5-6FB3-4E84-B5DA-E803447CFBA5}"/>
-    <hyperlink ref="H2" r:id="rId12" xr:uid="{374CC952-BF34-4874-920C-F0140DE4F5E7}"/>
-    <hyperlink ref="H14" r:id="rId13" xr:uid="{0893679D-A592-4B3C-A98B-0056AFCE3D6F}"/>
-    <hyperlink ref="H15" r:id="rId14" xr:uid="{B76B6D37-71A7-4E78-B2D3-7A3E052D25EA}"/>
+    <hyperlink ref="L3" r:id="rId1"/>
+    <hyperlink ref="L4" r:id="rId2"/>
+    <hyperlink ref="L5" r:id="rId3" display="mailto:Koufu @ the South Spine.png"/>
+    <hyperlink ref="L6" r:id="rId4" display="Canteen 9.png"/>
+    <hyperlink ref="L7" r:id="rId5"/>
+    <hyperlink ref="L8" r:id="rId6" display="Canteen 13"/>
+    <hyperlink ref="L9" r:id="rId7" display="Canteen 14.png"/>
+    <hyperlink ref="L10" r:id="rId8"/>
+    <hyperlink ref="L11" r:id="rId9"/>
+    <hyperlink ref="L12" r:id="rId10"/>
+    <hyperlink ref="L13" r:id="rId11"/>
+    <hyperlink ref="L2" r:id="rId12"/>
+    <hyperlink ref="L14" r:id="rId13"/>
+    <hyperlink ref="L15" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId15"/>

--- a/canteen details.xlsx
+++ b/canteen details.xlsx
@@ -1,38 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ChinHong/Documents/GitHub/MiniProjectCZ1003/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NTU papers\Year1\CZ1003\Mini Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EDBBBA-B7EC-41BB-B3B7-39942E24B9BC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
   <si>
     <t>Canteen</t>
   </si>
@@ -193,15 +194,6 @@
     <t>In the middle of nowhere</t>
   </si>
   <si>
-    <t>North Spine Plaza, 50 Nanyang Avenue, NS3-01-20, Singapore 639798</t>
-  </si>
-  <si>
-    <t>50 Nanyang Avenue, SS3-B4, Singapore 639798</t>
-  </si>
-  <si>
-    <t>North Spine Plaza, 76 Nanyang Drive, NS2.1-02-03/01A, Singapore 637331</t>
-  </si>
-  <si>
     <t>21 Nanyang Circle, Singapore 639778</t>
   </si>
   <si>
@@ -211,22 +203,28 @@
     <t>Bakery Cuisine</t>
   </si>
   <si>
-    <t>Close hour</t>
-  </si>
-  <si>
-    <t>Open hour</t>
-  </si>
-  <si>
-    <t>Open min</t>
-  </si>
-  <si>
-    <t>Close min</t>
+    <t>1234 5678</t>
+  </si>
+  <si>
+    <t>50 Nanyang Avenue, SS3-B4</t>
+  </si>
+  <si>
+    <t>North Spine Plaza, 76 Nanyang Drive, NS2.1-02-03/01A, 637331</t>
+  </si>
+  <si>
+    <t>North Spine Plaza, 50 Nanyang Avenue, NS3-01-20, 639798</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Closed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -293,13 +291,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>15241</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>449580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1536701</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>1432560</xdr:rowOff>
@@ -310,7 +308,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A938DB68-973E-49A1-8E4A-4F25BE1B29A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A938DB68-973E-49A1-8E4A-4F25BE1B29A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -607,22 +605,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.83203125" customWidth="1"/>
-    <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="9.5" customWidth="1"/>
+    <col min="1" max="1" width="19.58203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.5" customWidth="1"/>
+    <col min="9" max="9" width="10.08203125" customWidth="1"/>
+    <col min="10" max="10" width="9.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -639,28 +637,22 @@
         <v>51</v>
       </c>
       <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
         <v>60</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>61</v>
       </c>
-      <c r="H1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" ht="46.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -677,28 +669,22 @@
         <v>13</v>
       </c>
       <c r="F2">
-        <v>7</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
+        <v>310</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
+      </c>
+      <c r="J2">
         <v>21</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>310</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="38.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:10" ht="38.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -715,28 +701,22 @@
         <v>13</v>
       </c>
       <c r="F3">
-        <v>7</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
+        <v>446</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3">
+        <v>7</v>
+      </c>
+      <c r="J3">
         <v>21</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>446</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="112" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:10" ht="93" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -753,28 +733,22 @@
         <v>13</v>
       </c>
       <c r="F4">
-        <v>7</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
+        <v>1838</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4">
+        <v>7</v>
+      </c>
+      <c r="J4">
         <v>21</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>1838</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="80" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -791,28 +765,22 @@
         <v>14</v>
       </c>
       <c r="F5">
+        <v>1050</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5">
         <v>8</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
+      <c r="J5">
         <v>20</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>1050</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="85.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:10" ht="85.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -829,28 +797,22 @@
         <v>13</v>
       </c>
       <c r="F6">
-        <v>7</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
+        <v>279</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6">
+        <v>7</v>
+      </c>
+      <c r="J6">
         <v>21</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>279</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="121.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:10" ht="121.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -867,28 +829,22 @@
         <v>13</v>
       </c>
       <c r="F7">
-        <v>7</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
+        <v>198</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7">
+        <v>7</v>
+      </c>
+      <c r="J7">
         <v>21</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>198</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="92.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:10" ht="92.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -905,28 +861,22 @@
         <v>13</v>
       </c>
       <c r="F8">
-        <v>7</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
+        <v>238</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8">
+        <v>7</v>
+      </c>
+      <c r="J8">
         <v>21</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>238</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="89.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:10" ht="89.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -943,28 +893,22 @@
         <v>13</v>
       </c>
       <c r="F9">
-        <v>7</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
+        <v>298</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J9">
         <v>21</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>298</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -981,28 +925,22 @@
         <v>13</v>
       </c>
       <c r="F10">
-        <v>7</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
+        <v>179</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10">
+        <v>7</v>
+      </c>
+      <c r="J10">
         <v>21</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>179</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1019,28 +957,22 @@
         <v>32</v>
       </c>
       <c r="F11">
-        <v>7</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
+        <v>1800</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11">
+        <v>7</v>
+      </c>
+      <c r="J11">
         <v>17</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>1800</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1057,28 +989,22 @@
         <v>13</v>
       </c>
       <c r="F12">
-        <v>7</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
+        <v>350</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12">
+        <v>7</v>
+      </c>
+      <c r="J12">
         <v>21</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>350</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1095,28 +1021,22 @@
         <v>33</v>
       </c>
       <c r="F13">
+        <v>80</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13">
         <v>8</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
+      <c r="J13">
         <v>18</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>80</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -1133,30 +1053,24 @@
         <v>13</v>
       </c>
       <c r="F14">
-        <v>7</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
+        <v>498</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14">
+        <v>7</v>
+      </c>
+      <c r="J14">
         <v>21</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>498</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="112" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:10" ht="93" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B15">
         <v>276</v>
@@ -1164,44 +1078,44 @@
       <c r="C15">
         <v>266</v>
       </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
       <c r="E15" t="s">
         <v>45</v>
       </c>
       <c r="F15">
-        <v>7</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
+        <v>20</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15">
+        <v>7</v>
+      </c>
+      <c r="J15">
         <v>21</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L3" r:id="rId1"/>
-    <hyperlink ref="L4" r:id="rId2"/>
-    <hyperlink ref="L5" r:id="rId3" display="mailto:Koufu @ the South Spine.png"/>
-    <hyperlink ref="L6" r:id="rId4" display="Canteen 9.png"/>
-    <hyperlink ref="L7" r:id="rId5"/>
-    <hyperlink ref="L8" r:id="rId6" display="Canteen 13"/>
-    <hyperlink ref="L9" r:id="rId7" display="Canteen 14.png"/>
-    <hyperlink ref="L10" r:id="rId8"/>
-    <hyperlink ref="L11" r:id="rId9"/>
-    <hyperlink ref="L12" r:id="rId10"/>
-    <hyperlink ref="L13" r:id="rId11"/>
-    <hyperlink ref="L2" r:id="rId12"/>
-    <hyperlink ref="L14" r:id="rId13"/>
-    <hyperlink ref="L15" r:id="rId14"/>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{A7BAECBA-06E2-46CE-A2A2-65CC8B54265A}"/>
+    <hyperlink ref="H4" r:id="rId2" xr:uid="{DF059ABC-A843-45DF-80F4-CC928607E728}"/>
+    <hyperlink ref="H5" r:id="rId3" display="mailto:Koufu @ the South Spine.png" xr:uid="{A769C651-569F-4EBB-A868-FBDEBFC98212}"/>
+    <hyperlink ref="H6" r:id="rId4" display="Canteen 9.png" xr:uid="{2D68F5D7-48FA-4574-A03C-FE67D2157B38}"/>
+    <hyperlink ref="H7" r:id="rId5" xr:uid="{69B7E168-F28B-4BA2-B37D-B2284DE3F659}"/>
+    <hyperlink ref="H8" r:id="rId6" display="Canteen 13" xr:uid="{F4E98B88-4DB3-4F1D-B40D-D8D549CBC590}"/>
+    <hyperlink ref="H9" r:id="rId7" display="Canteen 14.png" xr:uid="{F5BF9E1A-D194-4943-85F0-CF98D46D3071}"/>
+    <hyperlink ref="H10" r:id="rId8" xr:uid="{230CAA60-183C-4735-96FB-50CDC8F28406}"/>
+    <hyperlink ref="H11" r:id="rId9" xr:uid="{1F913D11-82FE-4D2D-98AD-4907016E14E3}"/>
+    <hyperlink ref="H12" r:id="rId10" xr:uid="{7DBB7A45-C327-421E-AC41-FA8A01B246CF}"/>
+    <hyperlink ref="H13" r:id="rId11" xr:uid="{2D5D6AF5-6FB3-4E84-B5DA-E803447CFBA5}"/>
+    <hyperlink ref="H2" r:id="rId12" xr:uid="{374CC952-BF34-4874-920C-F0140DE4F5E7}"/>
+    <hyperlink ref="H14" r:id="rId13" xr:uid="{0893679D-A592-4B3C-A98B-0056AFCE3D6F}"/>
+    <hyperlink ref="H15" r:id="rId14" xr:uid="{B76B6D37-71A7-4E78-B2D3-7A3E052D25EA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId15"/>
